--- a/LEARN-2021.xlsx
+++ b/LEARN-2021.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sonu\Playground\POCs\learn\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="657" activeTab="3"/>
   </bookViews>
@@ -21,9 +16,9 @@
     <sheet name="oAUTH &amp; IDENTITY4" sheetId="7" r:id="rId7"/>
     <sheet name="SQL" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Session Storage</t>
   </si>
@@ -410,12 +405,1063 @@
   <si>
     <t>O - Open Closed</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Open/closed Principle says "A software module/class is open for extension and closed for modification".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Problem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">public class Rectangle{  
+   public double Height {get;set;}  
+   public double Wight {get;set; }  
+}  
+public class Circle{  
+   public double Radius {get;set;}  
+}  
+public class AreaCalculator  
+{  
+   public double TotalArea(object[] arrObjects)  
+   {  
+      double area = 0;  
+      Rectangle objRectangle;  
+      Circle objCircle;  
+      foreach(var obj in arrObjects)  
+      {  
+         if(obj is Rectangle)  
+         {    
+            area += obj.Height * obj.Width;  
+         }  
+         else  
+         {  
+            objCircle = (Circle)obj;  
+            area += objCircle.Radius * objCircle.Radius * Math.PI;  
+         }  
+      }  
+      return area;  
+   }  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Solution:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">We are done with the change. Here we successfully introduced Circle into our app. We can add a Triangle and calculate it's the area by adding one more "if" block in the TotalArea method of AreaCalculator. But every time we introduce a new shape we need to alter the TotalArea method. So the AreaCalculator class is not closed for modification. It voilets Open closed principle.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">public class Rectangle: Shape  
+{  
+   public double Height {get;set;}  
+   public double Width {get;set;}  
+   public override double Area()  
+   {  
+      return Height * Width;  
+   }  
+}  
+public class Circle: Shape  
+{  
+   public double Radius {get;set;}  
+   public override double Area()  
+   {  
+      return Radius * Radus * Math.PI;  
+   }  
+} 
+public class AreaCalculator  
+{  
+   public double TotalArea(Shape[] arrShapes)  
+   {  
+      double area=0;  
+      foreach(var objShape in arrShapes)  
+      {  
+         area += objShape.Area();  
+      }  
+      return area;  
+   }  
+}  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SRP says "Every software module should have only one reason to change".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Problem:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// does not follow SRP
+public class RegisterService
+{
+    public void RegisterUser(string username)
+    {
+        if (username == "admin")
+            throw new InvalidOperationException();
+        SqlConnection connection = new SqlConnection();
+        connection.Open();
+        SqlCommand command = new SqlCommand("INSERT INTO [...]");//Insert user into database. 
+        SmtpClient client = new SmtpClient("smtp.myhost.com");
+        client.Send(new MailMessage()); //Send a welcome email. 
+    }
+}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+SOLUTION: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The program above does not follow SRP because RegisterUser does three different jobs: register a user, connect to the database, and send an email.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">public void RegisterUser(string username)
+{
+    if (username == "admin")
+        throw new InvalidOperationException();
+    _userRepository.Insert(...);
+    _emailService.Send(...);
+} </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Liskov Substitution Principle (LSP) states that "you should be able to use any derived class instead of a parent class and have it behave in the same manner without modification"The Liskov Substitution Principle (LSP) states that "you should be able to use any derived class instead of a parent class and have it behave in the same manner without modification"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Problem:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ Not following the Liskov Substitution Principle  
+public class AccessDataFile  
+{  
+    public string FilePath { get; set; }  
+    public virtual void ReadFile()  
+    {  
+        // Read File logic  
+        Console.WriteLine($"Base File {FilePath} has been read");  
+    }  
+    public virtual void WriteFile()  
+    {  
+        //Write File Logic  
+        Console.WriteLine($"Base File {FilePath} has been written");  
+    }  
+}    
+public class AdminDataFileUser : AccessDataFile  
+{  
+    public override void ReadFile()  
+    {  
+        // Read File logic  
+        Console.WriteLine($"File {FilePath} has been read");  
+    }  
+  public override void WriteFile()  
+    {  
+        //Write File Logic  
+        Console.WriteLine($"File {FilePath} has been written");  
+    }  
+}  
+public class RegularDataFileUser : AccessDataFile  
+{  
+    public override void ReadFile()  
+    {  
+        // Read File logic  
+        Console.WriteLine($"File {FilePath} has been read");  
+    }  
+  public override void WriteFile()  
+    {  
+        //Write File Logic  
+        throw new NotImplementedException();  
+    }  
+}   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">static Main()
+{
+//Calling class not following Liskov Substitution Principle  
+AccessDataFile accessDataFile = new AdminDataFileUser();  
+accessDataFile.FilePath = @"c:\temp\a.txt";  
+accessDataFile.ReadFile();  
+accessDataFile.WriteFile();  
+AccessDataFile accessDataFileR = new RegularDataFileUser();  
+accessDataFileR.FilePath = @"c:\temp\a.txt";  
+accessDataFileR.ReadFile();  
+//accessDataFileR.WriteFile();  // Throws exception 
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Solution:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">public interface IFileReader     
+    {    
+        void ReadFile(string filePath);    
+    }    
+    public interface IFileWriter     
+    {    
+        void WriteFile(string filePath);    
+    }    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> public class AdminDataFileUserFixed : IFileReader, IFileWriter    
+    {    
+        public void ReadFile(string filePath)    
+        {    
+            // Read File logic    
+            Console.WriteLine($"File {filePath} has been read");    
+        }
+        public void WriteFile(string filePath)    
+        {    
+            //Write File Logic    
+            Console.WriteLine($"File {filePath} has been written");    
+        }    
+    }    
+    public class RegularDataFileUserFixed : IFileReader    
+    {    
+        public void ReadFile(string filePath)    
+        {    
+            // Read File logic    
+            Console.WriteLine($"File {filePath} has been read");    
+        }    
+    } </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Main()
+{
+     //Calling class following Liskov Substitution Principle  
+IFileReader fileReader = new AdminDataFileUserFixed();  
+fileReader.ReadFile(@"c:\temp\a.txt");  
+IFileWriter fileWriter = new AdminDataFileUserFixed();  
+fileWriter.WriteFile(@"c:\temp\a.txt");  
+IFileReader fileReaderR = new RegularDataFileUserFixed();  
+fileReaderR.ReadFile(@"c:\temp\a.txt");
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Interface Segregation Principle states "that clients should not be forced to implement interfaces they don't use. Instead of one fat interface, many small interfaces are preferred based on groups of methods, each one serving one submodule.".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Problem:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">public interface IOrder
+ {
+ void AddToCart();
+ void CCProcess();
+ } 
+ public class OnlineOrder : IOrder
+ {
+ public void AddToCart()
+ {
+ //Do Add to Cart
+ } 
+ public void CCProcess()
+ {
+ //process through credit card
+ }
+ } 
+ public class OfflineOrder : IOrder
+ {
+ public void AddToCart()
+ {
+ //Do Add to Cart
+ } 
+ public void CCProcess()
+ {
+ //Not required for Cash/ offline Order
+ throw new NotImplementedException();
+ }
+ }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Solution:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public interface IOrder
+ {
+ void AddToCart();
+ } 
+ public interface IOnlineOrder
+ {
+ void CCProcess();
+ } 
+ public class OnlineOrder : IOrder, IOnlineOrder
+ {
+ public void AddToCart()
+ {
+ //Do Add to Cart
+ } 
+ public void CCProcess()
+ {
+ //process through credit card
+ }
+ } 
+ public class OfflineOrder : IOrder
+ {
+ public void AddToCart()
+ {
+ //Do Add to Cart
+ }
+ }</t>
+    </r>
+  </si>
+  <si>
+    <t>Middleware</t>
+  </si>
+  <si>
+    <t>Middleware - Add Custom</t>
+  </si>
+  <si>
+    <t>Cross Origin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Browser security prevents a web page from making AJAX requests to another domain. This restriction is called the same-origin policy, and prevents a malicious site from reading sensitive data from another site. However, sometimes you might want to let other sites call your web API.
+Cross Origin Resource Sharing (CORS) is a W3C standard that allows a server to relax the same-origin policy. Using CORS, a server can explicitly allow some cross-origin requests while rejecting others.
+What is "same origin"?
+Two URLs have the same origin if they have identical schemes, hosts, and ports. (RFC 6454)
+These two URLs have the same origin:
+http://example.com/foo.html
+http://example.com/bar.html
+These URLs have different origins than the previous two:
+http://example.net - Different domain
+http://example.com:9000/foo.html - Different port
+https://example.com/foo.html - Different scheme
+http://www.example.com/foo.html - Different subdomain
+</t>
+  </si>
+  <si>
+    <t>Content Negotiation</t>
+  </si>
+  <si>
+    <t>The HTTP specification (RFC 2616) defines content negotiation as "the process of selecting the best representation for a given response when there are multiple representations available." The primary mechanism for content negotiation in HTTP are these request headers:
+Accept: Which media types are acceptable for the response, such as "application/json," "application/xml," or a custom media type such as "application/vnd.example+xml"
+Accept-Charset: Which character sets are acceptable, such as UTF-8 or ISO 8859-1.
+Accept-Encoding: Which content encodings are acceptable, such as gzip.
+Accept-Language: The preferred natural language, such as "en-us".
+The server can also look at other portions of the HTTP request. For example, if the request contains an X-Requested-With header, indicating an AJAX request, the server might default to JSON if there is no Accept header.</t>
+  </si>
+  <si>
+    <t>ASP.NET Core introduced a new concept called Middleware. A middleware is nothing but a component (class) which is executed on every request in ASP.NET Core application. In the classic ASP.NET, HttpHandlers and HttpModules were part of request pipeline. Middleware is similar to HttpHandlers and HttpModules where both needs to be configured and executed in each request.
+We can configure middleware in the Configure method of the Startup class using IApplicationBuilder instance.
+public void Configure(IApplicationBuilder app, IHostingEnvironment env)
+{
+    app.Use(async (context, next) =&gt;
+    {
+        await context.Response.WriteAsync("Hello World From 1st Middleware!");
+        await next();
+    });
+    app.Run(async (context) =&gt;
+    {
+        await context.Response.WriteAsync("Hello World From 2nd Middleware"); 
+    });
+}
+The above example will display Hello World From 1st Middleware!Hello World From 2nd Middleware! in the browser.
+The followings are some built-in middleware:
+Authentication :  Adds authentication support.
+CORS: Configures Cross-Origin Resource Sharing.
+Routing:  Adds routing capabilities for MVC or web form
+Session:  Adds support for user session.
+StaticFiles:  Adds support for serving static files and directory browsing.
+Diagnostics:  Adds support for reporting and handling exceptions and errors.</t>
+  </si>
+  <si>
+    <t>Add Custom Middleware in ASP.NET Core Application:
+public class MyMiddleware
+{
+    private readonly RequestDelegate _next;
+    private readonly ILogger _logger;
+    public MyMiddleware(RequestDelegate next, ILoggerFactory logFactory)
+    {
+        _next = next;
+        _logger = logFactory.CreateLogger("MyMiddleware");
+    }
+    public async Task Invoke(HttpContext httpContext)
+    {
+        _logger.LogInformation("MyMiddleware executing..");
+        await _next(httpContext); // calling next middleware
+    }
+}
+// Extension method used to add the middleware to the HTTP request pipeline.
+public static class MyMiddlewareExtensions
+{
+    public static IApplicationBuilder UseMyMiddleware(this IApplicationBuilder builder)
+    {
+        return builder.UseMiddleware&lt;MyMiddleware&gt;();
+    }
+} 
+Add Custom Middleware in Configure method:
+public void Configure(IApplicationBuilder app, IHostingEnvironment env)
+{
+    app.UseMyMiddleware();
+    app.Run(async (context) =&gt;
+    {
+        await context.Response.WriteAsync("Hello World!");
+    });
+}</t>
+  </si>
+  <si>
+    <t>REST Api - Idempotent</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In the context of REST APIs, when making multiple identical requests has the same effect as making a single request – then that REST API is called idempotent.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+When you design REST APIs, you must realize that API consumers can make mistakes. Users can write client code in such a way that there can be duplicate requests coming to the API.
+These duplicate requests may be unintentional as well as intentional some time (e.g. due to timeout or network issues). You have to design fault-tolerant APIs in such a way that duplicate requests do not leave the system unstable.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"An idempotent HTTP method is an HTTP method that can be called many times without different outcomes. It would not matter if the method is called only once, or ten times over. The result should be the same.
+Idempotence essentially means that the result of a successfully performed request is independent of the number of times it is executed. For example, in arithmetic, adding zero to a number is an idempotent operation."
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Idempotency with HTTP Methods:
+HTTP POST
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generally</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not necessarily – POST APIs are used to create a new resource on server. So when you invoke the same POST request N times, you will have N new resources on the server. So,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> POST is not idempotent.
+HTTP GET, HEAD, OPTIONS and TRACE
+GET, HEAD, OPTIONS and TRACE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>methods NEVER change the resource state on server. They are purely for retrieving the resource representation or meta data at that point of time. So invoking multiple requests will not have any write operation on server, so</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> GET, HEAD, OPTIONS and TRACE are idempotent.
+HTTP PUT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generally – not necessarily – PUT APIs are used to update the resource state. If you invoke a PUT API N times, the very first request will update the resource; then rest N-1 requests will just overwrite the same resource state again and again – effectively not changing anything. Hence,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PUT is idempotent.
+HTTP DELETE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">When you invoke N similar DELETE requests, first request will delete the resource and response will be 200 (OK) or 204 (No Content). Other N-1 requests will return 404 (Not Found). Clearly, the response is different from first request, but there is no change of state for any resource on server side because original resource is already deleted. So, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DELETE is idempotent.</t>
+    </r>
+  </si>
+  <si>
+    <t>.Net vs .Net Core</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A high-performance and scalable system without UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.NET Core</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is much faster.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Docker containers support</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:  Both, but .NET Core is born to live in a container.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Heavily rely on the command line: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .NET Core has better support.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cross-platform needs: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .NET Core
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Using Microservices:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Both, but .NET Core is designed to keep today's needs in mind.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User interface centric Web applications:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .NET Framework is better now until .NET Core catches up.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Windows client applications using Windows Forms and WPF:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.NET Framework
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Already have a pre-configured environment and systems:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .NET Framework is better.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stable version for an immediate need to build and deploy:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .NET Framework has been around since 2001. .NET Core is just a baby.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Have existing experienced .NET team:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .NET Core has a learning curve.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Time is not a problem. Experiments are acceptable. No rush to deployment.: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .NET Core is the future of .NET.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,16 +1516,78 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -487,18 +1595,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -506,8 +1631,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Heading 4" xfId="1" builtinId="19"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -521,6 +1658,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>600075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="cors_principle.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12306300" y="390527"/>
+          <a:ext cx="904875" cy="590548"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -566,7 +1746,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -601,7 +1781,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -778,34 +1958,526 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="B3:S3"/>
+    <mergeCell ref="B4:R4"/>
+    <mergeCell ref="B5:R5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:S6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" style="9" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -823,15 +2495,13 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -849,497 +2519,250 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="4"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="4"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" ht="49.5" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="7"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="B3:S3"/>
+  <mergeCells count="6">
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B3:R3"/>
     <mergeCell ref="B4:R4"/>
     <mergeCell ref="B5:R5"/>
+    <mergeCell ref="B6:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="7" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B3:R3"/>
+    <mergeCell ref="B4:R4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
@@ -1349,14 +2772,14 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -1366,14 +2789,14 @@
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
@@ -1383,14 +2806,14 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -1400,7 +2823,7 @@
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LEARN-2021.xlsx
+++ b/LEARN-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="657" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="657" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="JS" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Session Storage</t>
   </si>
@@ -968,14 +968,6 @@
     <t>Content Negotiation</t>
   </si>
   <si>
-    <t>The HTTP specification (RFC 2616) defines content negotiation as "the process of selecting the best representation for a given response when there are multiple representations available." The primary mechanism for content negotiation in HTTP are these request headers:
-Accept: Which media types are acceptable for the response, such as "application/json," "application/xml," or a custom media type such as "application/vnd.example+xml"
-Accept-Charset: Which character sets are acceptable, such as UTF-8 or ISO 8859-1.
-Accept-Encoding: Which content encodings are acceptable, such as gzip.
-Accept-Language: The preferred natural language, such as "en-us".
-The server can also look at other portions of the HTTP request. For example, if the request contains an X-Requested-With header, indicating an AJAX request, the server might default to JSON if there is no Accept header.</t>
-  </si>
-  <si>
     <t>ASP.NET Core introduced a new concept called Middleware. A middleware is nothing but a component (class) which is executed on every request in ASP.NET Core application. In the classic ASP.NET, HttpHandlers and HttpModules were part of request pipeline. Middleware is similar to HttpHandlers and HttpModules where both needs to be configured and executed in each request.
 We can configure middleware in the Configure method of the Startup class using IApplicationBuilder instance.
 public void Configure(IApplicationBuilder app, IHostingEnvironment env)
@@ -1456,12 +1448,422 @@
       <t xml:space="preserve"> .NET Core is the future of .NET.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The HTTP specification (RFC 2616) defines content negotiation as "the process of selecting the best representation for a given response when there are multiple representations available."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The primary mechanism for content negotiation in HTTP are these request headers:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Accept: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Which media types are acceptable for the response, such as "application/json," "application/xml," or a custom media type such as "application/vnd.example+xml"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accept-Charset:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Which character sets are acceptable, such as UTF-8 or ISO 8859-1.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accept-Encoding:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Which content encodings are acceptable, such as gzip.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Accept-Language: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The preferred natural language, such as "en-us".
+The server can also look at other portions of the HTTP request. For example, if the request contains an X-Requested-With header, indicating an AJAX request, the server might default to JSON if there is no Accept header.</t>
+    </r>
+  </si>
+  <si>
+    <t>oAuth2</t>
+  </si>
+  <si>
+    <t>oAuth2 - Authorization Code Flow</t>
+  </si>
+  <si>
+    <t>A client application (a) makes an authorization request to an authorization endpoint, (b) receives a short-lived authorization code, (c) makes a token request to a token endpoint with the authorization code, and (d) gets an access token.</t>
+  </si>
+  <si>
+    <t>oAuth2 - Implicit Flow</t>
+  </si>
+  <si>
+    <t>A client application (a) makes an authorization request to an authorization endpoint and (b) gets an access token directly from the authorization endpoint.</t>
+  </si>
+  <si>
+    <t>A client application (a) makes a token request to a token endpoint and (b) gets an access token. In this flow, a client application accepts a user's ID and password although the primary purpose of OAuth 2.0 is to give limited permissions to a client application WITHOUT revealing the user's credentials to the client application.</t>
+  </si>
+  <si>
+    <t>oAuth-Resource Owner Password Credentials Flow</t>
+  </si>
+  <si>
+    <t>A client application (a) makes a token request to a token endpoint and (b) gets an access token. In this flow, user authentication is not performed and client application authentication only is performed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oAuth-Client Credentials Flow </t>
+  </si>
+  <si>
+    <t>oAuth-Refresh Token Flow</t>
+  </si>
+  <si>
+    <t>A client application (a) presents a refresh token to a token endpoint and (b) gets a new access token.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OAuth is not an API or a service: it’s an open standard for authorization and anyone can implement it.
+More specifically, OAuth is a standard that apps can use to provide client applications with “secure delegated access”. OAuth works over HTTPS and authorizes devices, APIs, servers, and applications with access tokens rather than credentials.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Roles/Terminologies:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resource Owner:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Entity that can grant access to a protected resource. Typically, this is the end-user.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resource Server:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Server hosting the protected resources. This is the API you want to access.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Client:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Application requesting access to a protected resource on behalf of the Resource Owner.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Authorization Server:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Server that authenticates the Resource Owner and issues access tokens after getting proper authorization. In this case, Auth0.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grant types</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+OAuth 2.0 defines four flows to get an access token. These flows are called grant types. Deciding which one is suited for your case depends mostly on your application type.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Authorization Code Flow:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> used by Web Apps executing on a server. This is also used by mobile apps, using the Proof Key for Code Exchange (PKCE) technique.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Implicit Flow with Form Post:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> used by JavaScript-centric apps (Single-Page Applications) executing on the user's browser.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resource Owner Password Flow:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> used by highly-trusted apps.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Client Credentials Flow:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> used for machine-to-machine communication.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://developer.okta.com/blog/2017/06/21/what-the-heck-is-oauth
+https://darutk.medium.com/diagrams-and-movies-of-all-the-oauth-2-0-flows-194f3c3ade85</t>
+    </r>
+  </si>
+  <si>
+    <t>OpenID</t>
+  </si>
+  <si>
+    <t>OpenID Connect 1.0 is a simple identity layer on top of the OAuth 2.0 protocol. It allows Clients to verify the identity of the End-User based on the authentication performed by an Authorization Server, as well as to obtain basic profile information about the End-User in an interoperable and REST-like manner.
+OpenID Connect allows clients of all types, including Web-based, mobile, and JavaScript clients, to request and receive information about authenticated sessions and end-users. The specification suite is extensible, allowing participants to use optional features such as encryption of identity data, discovery of OpenID Providers, and session management, when it makes sense for them.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1567,6 +1969,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1616,15 +2026,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1639,6 +2043,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1692,6 +2105,315 @@
         <a:xfrm>
           <a:off x="12306300" y="390527"/>
           <a:ext cx="904875" cy="590548"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1510337</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="oauth-actors.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10848975" y="0"/>
+          <a:ext cx="1186487" cy="180974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1552575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7203</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="oauth-abstract.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13677900" y="1"/>
+          <a:ext cx="1409700" cy="197702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="OAuth grant types - AuthorizationCode.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12030075" y="167879"/>
+          <a:ext cx="904875" cy="422672"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>111634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1415158</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Authorization Code Flow.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13773150" y="302134"/>
+          <a:ext cx="1177033" cy="288416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1323975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Implicit Flow.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11610975" y="593504"/>
+          <a:ext cx="1200150" cy="197072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>485776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Resource Owner Password Credential Flow.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11753850" y="941642"/>
+          <a:ext cx="885825" cy="306134"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>55436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="Clint Credentials.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11506200" y="1388936"/>
+          <a:ext cx="1590675" cy="316039"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>82201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1628776</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="Refresh Token Flow.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11677650" y="1796701"/>
+          <a:ext cx="1438276" cy="289274"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1958,7 +2680,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1984,103 +2706,103 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
@@ -2088,25 +2810,25 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
@@ -2463,168 +3185,168 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" style="9" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" style="7" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="B2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="B3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="49.5" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="B5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B6:R6"/>
     <mergeCell ref="B1:R1"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="B3:R3"/>
     <mergeCell ref="B4:R4"/>
     <mergeCell ref="B5:R5"/>
-    <mergeCell ref="B6:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2639,113 +3361,113 @@
   </sheetPr>
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2800,15 +3522,190 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="18" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="25.85546875" customWidth="1"/>
+    <col min="20" max="20" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" ht="30">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:18" ht="45">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:18" ht="30">
+      <c r="A5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" ht="30">
+      <c r="A6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B7:P7"/>
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:P4"/>
+    <mergeCell ref="B5:P5"/>
+    <mergeCell ref="B6:P6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/LEARN-2021.xlsx
+++ b/LEARN-2021.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Session Storage</t>
   </si>
@@ -1857,6 +1857,96 @@
   <si>
     <t>OpenID Connect 1.0 is a simple identity layer on top of the OAuth 2.0 protocol. It allows Clients to verify the identity of the End-User based on the authentication performed by an Authorization Server, as well as to obtain basic profile information about the End-User in an interoperable and REST-like manner.
 OpenID Connect allows clients of all types, including Web-based, mobile, and JavaScript clients, to request and receive information about authenticated sessions and end-users. The specification suite is extensible, allowing participants to use optional features such as encryption of identity data, discovery of OpenID Providers, and session management, when it makes sense for them.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenID versus OAuth from the user’s perspective
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">In this article I want to show the differences between OpenID and its younger cousin OAuth by providing for each a typical user scenario.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>First the scenario for OpenID:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• User wants to access his account on example.com
+• example.com (the “Relying Party” in OpenID lingo) asks the user for his OpenID
+• User enters his OpenID
+• example.com redirects the user to his OpenID provider
+• User authenticates himself to the OpenID provider
+• OpenID provider redirects the user back to example.com
+• example.com allows the user to access his account
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And now the scenario for OAuth:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• User is on example.com and wants to import his contacts from mycontacts.com
+• example.com (the “Consumer” in OAuth lingo) redirects the user to mycontacts.com (the “Service Provider”)
+• User authenticates himself to mycontacts.com (which can happen by using OpenID)
+• mycontacts.com asks the user whether he wants to authorize example.com to access his contacts
+• User makes his choice
+• mycontacts.com redirects the user back to example.com
+• example.com retrieves the contacts from mycontacts.com
+• example.com informs the user that the import was successful
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>From those scenarios we can see that OpenID is about authentication (i.e. I can identify myself with an url) whereas OAuth is about authorization (i.e. I can grant permission to access my data on some website to another website, without providing this website the authentication information for the original website).</t>
+    </r>
+  </si>
+  <si>
+    <t>OpenID vs oAuth</t>
   </si>
 </sst>
 </file>
@@ -2026,7 +2116,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2045,6 +2135,9 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2054,6 +2147,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 4" xfId="1" builtinId="19"/>
@@ -2680,7 +2774,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2706,103 +2800,103 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
@@ -2810,25 +2904,25 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
@@ -3198,146 +3292,146 @@
       <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:19" ht="49.5" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
       <c r="S4" s="5"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3374,97 +3468,97 @@
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="6" t="s">
@@ -3522,10 +3616,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:P6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3541,160 +3635,186 @@
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" ht="30">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:18" ht="45">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
     </row>
     <row r="5" spans="1:18" ht="30">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:18" ht="30">
       <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="C9" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B8:P8"/>
     <mergeCell ref="B7:P7"/>
     <mergeCell ref="B1:R1"/>
     <mergeCell ref="B2:P2"/>

--- a/LEARN-2021.xlsx
+++ b/LEARN-2021.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sonu\Playground\Projects\learn\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="772" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="772"/>
   </bookViews>
   <sheets>
     <sheet name="JS" sheetId="1" r:id="rId1"/>
@@ -23,8 +18,8 @@
     <sheet name="EF Core" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Session Storage</t>
   </si>
@@ -1317,264 +1312,6 @@
   </si>
   <si>
     <t>oAuth-Refresh Token Flow</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OAuth is not an API or a service: it’s an open standard for authorization and anyone can implement it.
-More specifically, OAuth is a standard that apps can use to provide client applications with “secure delegated access”. OAuth works over HTTPS and authorizes devices, APIs, servers, and applications with access tokens rather than credentials.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Roles/Terminologies:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Resource Owner:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Entity that can grant access to a protected resource. Typically, this is the end-user.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Resource Server:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Server hosting the protected resources. This is the API you want to access.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Client:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Application requesting access to a protected resource on behalf of the Resource Owner.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Authorization Server:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Server that authenticates the Resource Owner and issues access tokens after getting proper authorization. In this case, Auth0.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Grant types</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-OAuth 2.0 defines four flows to get an access token. These flows are called grant types. Deciding which one is suited for your case depends mostly on your application type.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Authorization Code Flow:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> used by Web Apps executing on a server. This is also used by mobile apps, using the Proof Key for Code Exchange (PKCE) technique.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Implicit Flow with Form Post:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> used by JavaScript-centric apps (Single-Page Applications) executing on the user's browser.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Resource Owner Password Flow:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> used by highly-trusted apps.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Client Credentials Flow:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> used for machine-to-machine communication.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://developer.okta.com/blog/2017/06/21/what-the-heck-is-oauth
-https://darutk.medium.com/diagrams-and-movies-of-all-the-oauth-2-0-flows-194f3c3ade85</t>
-    </r>
   </si>
   <si>
     <t>OpenID</t>
@@ -3717,12 +3454,273 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>Transient vs Scopped</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OAuth is not an API or a s ervice: it’s an open standard for authorization and anyone can implement it.
+More specifically, OAuth is a standard that apps can use to provide client applications with “secure delegated access”. OAuth works over HTTPS and authorizes devices, APIs, servers, and applications with access tokens rather than credentials.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Roles/Terminologies:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resource Owner:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Entity that can grant access to a protected resource. Typically, this is the end-user.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resource Server:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Server hosting the protected resources. This is the API you want to access.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Client:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Application requesting access to a protected resource on behalf of the Resource Owner.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Authorization Server:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Server that authenticates the Resource Owner and issues access tokens after getting proper authorization. In this case, Auth0.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grant types</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+OAuth 2.0 defines four flows to get an access token. These flows are called grant types. Deciding which one is suited for your case depends mostly on your application type.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Authorization Code Flow:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> used by Web Apps executing on a server. This is also used by mobile apps, using the Proof Key for Code Exchange (PKCE) technique.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Implicit Flow with Form Post:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> used by JavaScript-centric apps (Single-Page Applications) executing on the user's browser.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resource Owner Password Flow:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> used by highly-trusted apps.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Client Credentials Flow:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> used for machine-to-machine communication.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://developer.okta.com/blog/2017/06/21/what-the-heck-is-oauth
+https://darutk.medium.com/diagrams-and-movies-of-all-the-oauth-2-0-flows-194f3c3ade85</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4071,7 +4069,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4099,15 +4097,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>600075</xdr:rowOff>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4124,8 +4122,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12306300" y="390527"/>
-          <a:ext cx="904875" cy="590548"/>
+          <a:off x="12211050" y="571499"/>
+          <a:ext cx="542925" cy="247651"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4489,7 +4487,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4524,7 +4522,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4701,29 +4699,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:R4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4749,7 +4747,7 @@
       <c r="S1" s="19"/>
       <c r="T1" s="19"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -4775,7 +4773,7 @@
       <c r="S2" s="19"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
@@ -4801,7 +4799,7 @@
       <c r="S3" s="18"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
@@ -4827,7 +4825,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -4853,7 +4851,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4874,7 +4872,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4895,7 +4893,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4916,7 +4914,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4937,7 +4935,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4958,7 +4956,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4979,7 +4977,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -5000,7 +4998,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -5021,7 +5019,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -5042,7 +5040,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -5063,7 +5061,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -5084,7 +5082,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -5105,7 +5103,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -5126,7 +5124,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -5147,7 +5145,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -5182,29 +5180,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.140625" style="17" customWidth="1"/>
     <col min="19" max="19" width="31" style="5" customWidth="1"/>
     <col min="20" max="20" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>42</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -5224,12 +5222,12 @@
       <c r="R1" s="18"/>
       <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>43</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>44</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -5248,15 +5246,15 @@
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
       <c r="S2" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="45">
+      <c r="A3" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="B3" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -5276,12 +5274,12 @@
       <c r="R3" s="18"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="45">
       <c r="A4" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -5301,12 +5299,12 @@
       <c r="R4" s="18"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="45">
       <c r="A5" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -5326,12 +5324,12 @@
       <c r="R5" s="18"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>52</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>53</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -5351,12 +5349,12 @@
       <c r="R6" s="18"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -5376,12 +5374,12 @@
       <c r="R7" s="18"/>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -5401,12 +5399,12 @@
       <c r="R8" s="18"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -5426,12 +5424,12 @@
       <c r="R9" s="18"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>66</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>67</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -5452,16 +5450,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B3:R3"/>
+    <mergeCell ref="B4:R4"/>
+    <mergeCell ref="B5:R5"/>
     <mergeCell ref="B10:R10"/>
     <mergeCell ref="B9:R9"/>
     <mergeCell ref="B6:R6"/>
     <mergeCell ref="B7:R7"/>
     <mergeCell ref="B8:R8"/>
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B3:R3"/>
-    <mergeCell ref="B4:R4"/>
-    <mergeCell ref="B5:R5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1"/>
@@ -5473,23 +5471,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.42578125" style="4" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -5513,12 +5511,12 @@
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -5537,12 +5535,12 @@
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -5561,12 +5559,12 @@
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
     </row>
-    <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="18" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -5586,7 +5584,7 @@
       <c r="R4" s="18"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -5610,7 +5608,7 @@
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -5634,8 +5632,31 @@
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
     </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B7:R7"/>
     <mergeCell ref="B6:R6"/>
     <mergeCell ref="B1:R1"/>
     <mergeCell ref="B2:R2"/>
@@ -5650,22 +5671,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.28515625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
@@ -5689,7 +5710,7 @@
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="15" t="s">
         <v>14</v>
       </c>
@@ -5713,12 +5734,12 @@
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -5737,7 +5758,7 @@
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -5761,7 +5782,7 @@
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="15" t="s">
         <v>13</v>
       </c>
@@ -5779,7 +5800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
@@ -5789,14 +5810,14 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -5806,24 +5827,24 @@
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:P8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.7109375" style="11" customWidth="1"/>
     <col min="16" max="16" width="20.5703125" customWidth="1"/>
@@ -5832,12 +5853,12 @@
     <col min="20" max="20" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -5856,7 +5877,7 @@
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
     </row>
-    <row r="2" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="36" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
@@ -5878,7 +5899,7 @@
       <c r="O2" s="18"/>
       <c r="P2" s="18"/>
     </row>
-    <row r="3" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="22.5" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>30</v>
       </c>
@@ -5900,7 +5921,7 @@
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
     </row>
-    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="45">
       <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
@@ -5922,7 +5943,7 @@
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
     </row>
-    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="30">
       <c r="A5" s="11" t="s">
         <v>35</v>
       </c>
@@ -5944,12 +5965,12 @@
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
     </row>
-    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="30">
       <c r="A6" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -5967,12 +5988,12 @@
       <c r="P6" s="18"/>
       <c r="S6" s="9"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>38</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>39</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -5989,12 +6010,12 @@
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -6011,7 +6032,7 @@
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="C9" s="6"/>
     </row>
   </sheetData>
@@ -6032,7 +6053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -6042,14 +6063,14 @@
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -6059,7 +6080,7 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LEARN-2021.xlsx
+++ b/LEARN-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="772" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JS" sheetId="1" r:id="rId1"/>
@@ -284,100 +284,6 @@
  }
  const myCar = new Car('Outback', 'Subaru');
  console.log(myCar.name); // Outback</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A closure is a feature in JavaScript where an inner function has access to the outer (enclosing) function’s variables</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — a scope chain.
-The closure has three scope chains:
- • it has access to its own scope — variables defined between its curly brackets
- • it has access to the outer function’s variables
- • it has access to the global variables
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Closures in Action</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-To drive home the point of closures, let’s augment the example by adding three lines of code:
-function outer() {
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>var b = 10;
-var c = 100;
-   function inner() {
-         var a = 20; 
-         console.log("a= " + a + " b= " + b);
-         a++;
-         b++;
-    }
-   return inner;
-}
-var X = outer();  // outer() invoked the first time
-var Y = outer();  // outer() invoked the second time
-//end of outer() function executions
-X(); // X() invoked the first time
-X(); // X() invoked the second time
-X(); // X() invoked the third time
-Y(); // Y() invoked the first time
-When you run this code, you will see the following output in the console.log:
-a=20 b=10
-a=20 b=11
-a=20 b=12
-a=20 b=10</t>
     </r>
     <r>
       <rPr>
@@ -3713,6 +3619,111 @@
       </rPr>
       <t>https://developer.okta.com/blog/2017/06/21/what-the-heck-is-oauth
 https://darutk.medium.com/diagrams-and-movies-of-all-the-oauth-2-0-flows-194f3c3ade85</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A closure is a feature in JavaScript where an inner function has access to the outer (enclosing) function’s variables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — a scope chain.
+The closure has three scope chains:
+ • it has access to its own scope — variables defined between its curly brackets
+ • it has access to the outer function’s variables
+ • it has access to the global variables
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Closures in Action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+To drive home the point of closures, let’s augment the example by adding three lines of code:
+function outer() {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>var b = 10;
+var c = 100;
+   function inner() {
+         var a = 20; 
+         console.log("a= " + a + " b= " + b);
+         a++;
+         b++;
+    }
+   return inner;
+}
+var X = outer();  // outer() invoked the first time
+var Y = outer();  // outer() invoked the second time
+//end of outer() function executions
+X(); // X() invoked the first time
+X(); // X() invoked the second time
+X(); // X() invoked the third time
+Y(); // Y() invoked the first time
+When you run this code, you will see the following output in the console.log:
+a=20 b=10
+a=20 b=11
+a=20 b=12
+a=20 b=10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note:- Basically functions are first class object in Javascript, so function actuallyaan object entity and outer variables are being used as reference.</t>
     </r>
   </si>
 </sst>
@@ -4014,10 +4025,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4069,7 +4080,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4699,7 +4710,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4712,8 +4723,8 @@
   </sheetPr>
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4778,7 +4789,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -5199,10 +5210,10 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>41</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -5224,10 +5235,10 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>43</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -5246,15 +5257,15 @@
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
       <c r="S2" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="45">
       <c r="A3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -5276,10 +5287,10 @@
     </row>
     <row r="4" spans="1:19" ht="45">
       <c r="A4" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="22" t="s">
         <v>46</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -5301,10 +5312,10 @@
     </row>
     <row r="5" spans="1:19" ht="45">
       <c r="A5" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -5326,10 +5337,10 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>51</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>52</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -5351,10 +5362,10 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -5376,10 +5387,10 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -5401,10 +5412,10 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -5426,10 +5437,10 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>65</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -5450,16 +5461,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B6:R6"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B8:R8"/>
     <mergeCell ref="B1:R1"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="B3:R3"/>
     <mergeCell ref="B4:R4"/>
     <mergeCell ref="B5:R5"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B6:R6"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B8:R8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1"/>
@@ -5489,10 +5500,10 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>25</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -5513,10 +5524,10 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -5537,10 +5548,10 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -5561,10 +5572,10 @@
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -5586,10 +5597,10 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -5610,10 +5621,10 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>23</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -5634,7 +5645,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -5677,8 +5688,8 @@
   </sheetPr>
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:R1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5688,10 +5699,10 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -5712,10 +5723,10 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -5736,10 +5747,10 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -5760,10 +5771,10 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -5784,7 +5795,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -5855,10 +5866,10 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -5879,10 +5890,10 @@
     </row>
     <row r="2" spans="1:19" ht="36" customHeight="1">
       <c r="A2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>29</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -5901,10 +5912,10 @@
     </row>
     <row r="3" spans="1:19" ht="22.5" customHeight="1">
       <c r="A3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -5923,10 +5934,10 @@
     </row>
     <row r="4" spans="1:19" ht="45">
       <c r="A4" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -5945,10 +5956,10 @@
     </row>
     <row r="5" spans="1:19" ht="30">
       <c r="A5" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -5967,10 +5978,10 @@
     </row>
     <row r="6" spans="1:19" ht="30">
       <c r="A6" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -5990,10 +6001,10 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -6012,10 +6023,10 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
